--- a/corrections/2015_BC0505_q3_A2__seuEmail@dominio.com.pdf.csv__FORMATED.xlsx
+++ b/corrections/2015_BC0505_q3_A2__seuEmail@dominio.com.pdf.csv__FORMATED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25000" windowHeight="14960" tabRatio="233"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25480" windowHeight="14940" tabRatio="233"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve"> Pag</t>
   </si>
@@ -39,18 +39,12 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Resp</t>
-  </si>
-  <si>
     <t>Quest</t>
   </si>
   <si>
     <t>Inv</t>
   </si>
   <si>
-    <t>Nota</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 </t>
   </si>
   <si>
@@ -120,47 +114,47 @@
     <t xml:space="preserve"> 13</t>
   </si>
   <si>
-    <t>Participantes</t>
-  </si>
-  <si>
-    <t>Erro na Leitura de Código de barras</t>
-  </si>
-  <si>
-    <t>Erro na leitura da nota</t>
-  </si>
-  <si>
-    <t>Notas Brancas</t>
-  </si>
-  <si>
-    <t>(Questões em branco)</t>
-  </si>
-  <si>
-    <t>Notas Duplicadas</t>
-  </si>
-  <si>
-    <t>(2 notas ou mais na mesma questão)</t>
-  </si>
-  <si>
-    <t>Porcentagem de acerto</t>
-  </si>
-  <si>
     <t>erros</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>%acertos</t>
-  </si>
-  <si>
-    <t>Banco de Questões</t>
+    <t>Percentage of correct questions</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Barcode Reading Erros</t>
+  </si>
+  <si>
+    <t>Marking Reading Erros</t>
+  </si>
+  <si>
+    <t>Blank (no Marking)</t>
+  </si>
+  <si>
+    <t>Duplicate Markings</t>
+  </si>
+  <si>
+    <t>Answ</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Databanks of Questions</t>
+  </si>
+  <si>
+    <t>Randomly Selected Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,18 +172,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="&quot;Liberation Sans&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Liberation Sans&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF38761D"/>
       <name val="&quot;Liberation Sans&quot;"/>
     </font>
     <font>
@@ -223,13 +205,12 @@
       <name val="&quot;Liberation Sans&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Liberation Sans&quot;"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,43 +271,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -355,36 +312,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF3F3F3"/>
       </left>
       <right/>
@@ -393,36 +320,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF3F3F3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF3F3F3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,113 +369,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF3F3F3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +571,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="37">
     <dxf>
       <font>
         <color theme="0"/>
@@ -854,6 +839,236 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFCC00"/>
           <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6600"/>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC00"/>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
         </patternFill>
       </fill>
       <border>
@@ -1228,1287 +1443,1294 @@
   <dimension ref="A1:AT14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5" style="7" customWidth="1"/>
-    <col min="8" max="12" width="4.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="6" style="7" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="5" style="7" customWidth="1"/>
-    <col min="17" max="17" width="4" style="7" customWidth="1"/>
-    <col min="18" max="25" width="3.5" style="7" customWidth="1"/>
-    <col min="26" max="26" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.1640625" style="7" customWidth="1"/>
-    <col min="28" max="46" width="5" style="7" customWidth="1"/>
-    <col min="47" max="16384" width="11.5" style="7"/>
+    <col min="1" max="1" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.83203125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.83203125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="5.1640625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="4.6640625" style="2" customWidth="1"/>
+    <col min="44" max="46" width="5.1640625" style="2" customWidth="1"/>
+    <col min="47" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="6">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1">
         <f>COUNTIF(A12:A3245,"&gt;0")</f>
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:46" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="11">
+      <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="3">
         <f>COUNTIF(A12:A3511,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:46" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="12">
+      <c r="A5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="4">
         <f>COUNTIF(C12:C3014,"&lt;5")+COUNTIF(D12:D14,"&lt;10")</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
+      <c r="AA5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:46" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="14">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="5">
         <f>(COUNTIF(F10:R3511,"*0/*"))</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="7">
-        <f>COUNTIF(AA12:AA32,"*")</f>
+      <c r="Y7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AT7" si="0">COUNTIF(AA12:AA32,"*")</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
-        <f>COUNTIF(AB12:AB32,"*")</f>
+      <c r="AB7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC7" s="7">
-        <f>COUNTIF(AC12:AC32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="7">
-        <f>COUNTIF(AD12:AD32,"*")</f>
+      <c r="AC7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE7" s="7">
-        <f>COUNTIF(AE12:AE32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AF7" s="7">
-        <f>COUNTIF(AF12:AF32,"*")</f>
+      <c r="AE7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AG7" s="7">
-        <f>COUNTIF(AG12:AG32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AH7" s="7">
-        <f>COUNTIF(AH12:AH32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="7">
-        <f>COUNTIF(AI12:AI32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="7">
-        <f>COUNTIF(AJ12:AJ32,"*")</f>
+      <c r="AG7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK7" s="7">
-        <f>COUNTIF(AK12:AK32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="7">
-        <f>COUNTIF(AL12:AL32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AM7" s="7">
-        <f>COUNTIF(AM12:AM32,"*")</f>
+      <c r="AK7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN7" s="7">
-        <f>COUNTIF(AN12:AN32,"*")</f>
+      <c r="AN7" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="7">
-        <f>COUNTIF(AO12:AO32,"*")</f>
+      <c r="AO7" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="7">
-        <f>COUNTIF(AP12:AP32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="7">
-        <f>COUNTIF(AQ12:AQ32,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="AR7" s="7">
-        <f>COUNTIF(AR12:AR32,"*")</f>
+      <c r="AP7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR7" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AS7" s="7">
-        <f>COUNTIF(AS12:AS32,"*")</f>
+      <c r="AS7" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AT7" s="7">
-        <f>COUNTIF(AT12:AT32,"*")</f>
+      <c r="AT7" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="Y8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="7">
-        <f>COUNTIF(AA12:AA14,"*/*")</f>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Y8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="2">
+        <f t="shared" ref="AA8:AT8" si="1">COUNTIF(AA12:AA14,"*/*")</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
-        <f>COUNTIF(AB12:AB14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7">
-        <f>COUNTIF(AC12:AC14,"*/*")</f>
+      <c r="AB8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="7">
-        <f>COUNTIF(AD12:AD14,"*/*")</f>
+      <c r="AD8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="7">
-        <f>COUNTIF(AE12:AE14,"*/*")</f>
+      <c r="AE8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="7">
-        <f>COUNTIF(AF12:AF14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="7">
-        <f>COUNTIF(AG12:AG14,"*/*")</f>
+      <c r="AF8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="7">
-        <f>COUNTIF(AH12:AH14,"*/*")</f>
+      <c r="AH8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="7">
-        <f>COUNTIF(AI12:AI14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="7">
-        <f>COUNTIF(AJ12:AJ14,"*/*")</f>
+      <c r="AI8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="7">
-        <f>COUNTIF(AK12:AK14,"*/*")</f>
+      <c r="AK8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="7">
-        <f>COUNTIF(AL12:AL14,"*/*")</f>
+      <c r="AL8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="7">
-        <f>COUNTIF(AM12:AM14,"*/*")</f>
+      <c r="AM8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="7">
-        <f>COUNTIF(AN12:AN14,"*/*")</f>
+      <c r="AN8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="7">
-        <f>COUNTIF(AO12:AO14,"*/*")</f>
+      <c r="AO8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="7">
-        <f>COUNTIF(AP12:AP14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="7">
-        <f>COUNTIF(AQ12:AQ14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AR8" s="7">
-        <f>COUNTIF(AR12:AR14,"*/*")</f>
+      <c r="AP8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AS8" s="7">
-        <f>COUNTIF(AS12:AS14,"*/*")</f>
-        <v>1</v>
-      </c>
-      <c r="AT8" s="7">
-        <f>COUNTIF(AT12:AT14,"*/*")</f>
+      <c r="AS8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="17">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="6">
         <f>COUNTIF(F12:R3511,"*2/*")+COUNTIF(F12:R3511,"*3/*")+COUNTIF(F12:R3511,"*4/*")</f>
         <v>0</v>
       </c>
+      <c r="Q9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="18">
-        <f>($O$1-COUNTIF(G12:G3511,"*/*"))/$O$1</f>
+    <row r="10" spans="1:46" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
+        <f t="shared" ref="G10:P10" si="2">($O$1-COUNTIF(G12:G3511,"*/*"))/$O$1</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H10" s="18">
-        <f>($O$1-COUNTIF(H12:H3511,"*/*"))/$O$1</f>
+      <c r="H10" s="25">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I10" s="18">
-        <f>($O$1-COUNTIF(I12:I3511,"*/*"))/$O$1</f>
+      <c r="I10" s="25">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J10" s="18">
-        <f>($O$1-COUNTIF(J12:J3511,"*/*"))/$O$1</f>
+      <c r="J10" s="25">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K10" s="18">
-        <f>($O$1-COUNTIF(K12:K3511,"*/*"))/$O$1</f>
+      <c r="K10" s="25">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L10" s="18">
-        <f>($O$1-COUNTIF(L12:L3511,"*/*"))/$O$1</f>
+      <c r="L10" s="25">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M10" s="18">
-        <f>($O$1-COUNTIF(M12:M3511,"*/*"))/$O$1</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="18">
-        <f>($O$1-COUNTIF(N12:N3511,"*/*"))/$O$1</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="18">
-        <f>($O$1-COUNTIF(O12:O3511,"*/*"))/$O$1</f>
+      <c r="M10" s="25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P10" s="18">
-        <f>($O$1-COUNTIF(P12:P3511,"*/*"))/$O$1</f>
+      <c r="P10" s="25">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="Y10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="25" t="e">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="28" t="e">
         <f>(AA7-AA8)/AA7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="25">
-        <f t="shared" ref="AB10:AT10" si="0">(AB7-AB8)/AB7</f>
+      <c r="AB10" s="28">
+        <f t="shared" ref="AB10:AT10" si="3">(AB7-AB8)/AB7</f>
         <v>0.5</v>
       </c>
-      <c r="AC10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AC10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF10" s="28">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AG10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AG10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM10" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" s="25" t="e">
-        <f t="shared" si="0"/>
+      <c r="AJ10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="28" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="25" t="e">
-        <f t="shared" si="0"/>
+      <c r="AO10" s="28" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AP10" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AQ10" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AR10" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AS10" s="28">
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AT10" s="25">
-        <f t="shared" si="0"/>
+      <c r="AT10" s="28">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="K11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="L11" s="7">
+        <v>6</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8</v>
+      </c>
+      <c r="O11" s="7">
+        <v>9</v>
+      </c>
+      <c r="P11" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="S11" s="7">
         <v>3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="T11" s="7">
         <v>4</v>
       </c>
-      <c r="K11" s="20">
+      <c r="U11" s="7">
         <v>5</v>
       </c>
-      <c r="L11" s="20">
+      <c r="V11" s="7">
         <v>6</v>
       </c>
-      <c r="M11" s="20">
+      <c r="W11" s="7">
         <v>7</v>
       </c>
-      <c r="N11" s="20">
+      <c r="X11" s="7">
         <v>8</v>
       </c>
-      <c r="O11" s="20">
+      <c r="Y11" s="7">
         <v>9</v>
       </c>
-      <c r="P11" s="20">
+      <c r="Z11" s="7">
         <v>10</v>
       </c>
-      <c r="Q11" s="20">
-        <v>1</v>
-      </c>
-      <c r="R11" s="20">
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" ref="AB11:AT11" si="4">AA11+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="8">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S11" s="20">
+      <c r="AD11" s="8">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="T11" s="20">
+      <c r="AE11" s="8">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U11" s="20">
+      <c r="AF11" s="8">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="V11" s="20">
+      <c r="AG11" s="8">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W11" s="20">
+      <c r="AH11" s="8">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X11" s="20">
+      <c r="AI11" s="8">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="AJ11" s="8">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="AK11" s="8">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="21">
-        <f t="shared" ref="AB11:AT11" si="1">AA11+1</f>
-        <v>1</v>
-      </c>
-      <c r="AC11" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD11" s="21">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AE11" s="21">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AF11" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AG11" s="21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AH11" s="21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AI11" s="21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AJ11" s="21">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AK11" s="21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AL11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AL11" s="8">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="AM11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AM11" s="8">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AN11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AN11" s="8">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="AO11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AO11" s="8">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AP11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AP11" s="8">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AQ11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AQ11" s="8">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AR11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AR11" s="8">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AS11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AS11" s="8">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AT11" s="21">
-        <f t="shared" si="1"/>
+      <c r="AT11" s="8">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>1</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
         <v>12345678</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="9">
         <v>5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="9">
         <v>10</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="I12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="L12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="M12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="N12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="Q12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="23">
+      <c r="R12" s="10">
         <v>4</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="10">
         <v>18</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="10">
         <v>5</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="10">
         <v>17</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="10">
         <v>10</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="10">
         <v>6</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="10">
         <v>19</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="10">
         <v>3</v>
       </c>
-      <c r="Z12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="22" t="e">
-        <f t="shared" ref="AA12:AT12" si="2">INDEX($G12:$P12,1,MATCH(AA$11,$Q12:$Z12,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="Z12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9" t="e">
+        <f t="shared" ref="AA12:AT12" si="5">INDEX($G12:$P12,1,MATCH(AA$11,$Q12:$Z12,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">C </v>
       </c>
-      <c r="AC12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AC12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AE12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AE12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
-      <c r="AF12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AF12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AG12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
-      <c r="AH12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AH12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
-      <c r="AL12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ12" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AL12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AO12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ12" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AR12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>A/C</v>
       </c>
-      <c r="AS12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AS12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="AT12" s="22" t="str">
-        <f t="shared" si="2"/>
+      <c r="AT12" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="9">
         <v>87654321</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="I13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="K13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="M13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10">
+        <v>9</v>
+      </c>
+      <c r="S13" s="10">
+        <v>7</v>
+      </c>
+      <c r="T13" s="10">
         <v>16</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="22" t="s">
+      <c r="U13" s="10">
+        <v>2</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1</v>
+      </c>
+      <c r="W13" s="10">
+        <v>11</v>
+      </c>
+      <c r="X13" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="10">
         <v>18</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="23">
-        <v>9</v>
-      </c>
-      <c r="S13" s="23">
-        <v>7</v>
-      </c>
-      <c r="T13" s="23">
-        <v>16</v>
-      </c>
-      <c r="U13" s="23">
-        <v>2</v>
-      </c>
-      <c r="V13" s="23">
-        <v>1</v>
-      </c>
-      <c r="W13" s="23">
-        <v>11</v>
-      </c>
-      <c r="X13" s="23">
+      <c r="Z13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="23">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA13" s="22" t="e">
-        <f t="shared" ref="AA13:AP14" si="3">INDEX($G13:$P13,1,MATCH(AA$11,$Q13:$Z13,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AA13" s="9" t="e">
+        <f t="shared" ref="AA13:AP14" si="6">INDEX($G13:$P13,1,MATCH(AA$11,$Q13:$Z13,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>D/B</v>
       </c>
-      <c r="AC13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AC13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="AD13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AD13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="AI13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="AK13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AK13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>A</v>
       </c>
-      <c r="AM13" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AM13" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>A</v>
       </c>
-      <c r="AN13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP13" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ13" s="22" t="str">
-        <f t="shared" ref="AQ13:AT14" si="4">INDEX($G13:$P13,1,MATCH(AQ$11,$Q13:$Z13,0))</f>
+      <c r="AN13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AO13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP13" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ13" s="9" t="str">
+        <f t="shared" ref="AQ13:AT14" si="7">INDEX($G13:$P13,1,MATCH(AQ$11,$Q13:$Z13,0))</f>
         <v>B/D</v>
       </c>
-      <c r="AR13" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS13" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="AR13" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AS13" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
-      <c r="AT13" s="22" t="e">
-        <f t="shared" si="4"/>
+      <c r="AT13" s="9" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="9">
         <v>11111111</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="9">
         <v>10</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="J14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="10">
+        <v>17</v>
+      </c>
+      <c r="S14" s="10">
+        <v>8</v>
+      </c>
+      <c r="T14" s="10">
+        <v>15</v>
+      </c>
+      <c r="U14" s="10">
         <v>18</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="23">
-        <v>17</v>
-      </c>
-      <c r="S14" s="23">
-        <v>8</v>
-      </c>
-      <c r="T14" s="23">
-        <v>15</v>
-      </c>
-      <c r="U14" s="23">
-        <v>18</v>
-      </c>
-      <c r="V14" s="23">
+      <c r="V14" s="10">
         <v>12</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="10">
         <v>3</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="10">
         <v>9</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="10">
         <v>5</v>
       </c>
-      <c r="Z14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="Z14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="AE14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AE14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>D/B</v>
       </c>
-      <c r="AG14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AG14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>A/B</v>
       </c>
-      <c r="AJ14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AJ14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="AK14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AK14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>A</v>
       </c>
-      <c r="AN14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP14" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="AN14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AO14" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP14" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>D/B</v>
       </c>
-      <c r="AQ14" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR14" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ14" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AR14" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>A/D</v>
       </c>
-      <c r="AS14" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="AS14" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>C/B</v>
       </c>
-      <c r="AT14" s="22" t="e">
-        <f t="shared" si="4"/>
+      <c r="AT14" s="9" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="AA5:AT5"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="Q9:Z9"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:H1 F3:G3 I3:L3 J1:M1 F5:M5 F7:M7 G9:M9">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="0/">
-      <formula>NOT(ISERROR(SEARCH(("0/"),(L1))))</formula>
+  <conditionalFormatting sqref="O1 O7 O9 O3">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="3/">
+      <formula>NOT(ISERROR(SEARCH(("3/"),(V1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1 F3:G3 I3:L3 J1:M1 F5:M5 F7:M7 G9:M9">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="2/">
-      <formula>NOT(ISERROR(SEARCH(("2/"),(L1))))</formula>
+  <conditionalFormatting sqref="O1 O7 O9 O3">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="4/">
+      <formula>NOT(ISERROR(SEARCH(("4/"),(V1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1 F3:G3 I3:L3 J1:M1 F5:M5 F7:M7 G9:M9">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="3/">
-      <formula>NOT(ISERROR(SEARCH(("3/"),(L1))))</formula>
+  <conditionalFormatting sqref="O1 O7 O9 O3">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="0/">
+      <formula>NOT(ISERROR(SEARCH(("0/"),(V1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1 F3:G3 I3:L3 J1:M1 F5:M5 F7:M7 G9:M9">
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="4/">
-      <formula>NOT(ISERROR(SEARCH(("4/"),(L1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1 N5 N7:O7 N9:O9 N3:O3">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="3/">
-      <formula>NOT(ISERROR(SEARCH(("3/"),(U1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1 N5 N7:O7 N9:O9 N3:O3">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="4/">
-      <formula>NOT(ISERROR(SEARCH(("4/"),(U1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1 N5 N7:O7 N9:O9 N3:O3">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="0/">
-      <formula>NOT(ISERROR(SEARCH(("0/"),(U1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1 N5 N7:O7 N9:O9 N3:O3">
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="2/">
-      <formula>NOT(ISERROR(SEARCH(("2/"),(U1))))</formula>
+  <conditionalFormatting sqref="O1 O7 O9 O3">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="2/">
+      <formula>NOT(ISERROR(SEARCH(("2/"),(V1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="3/">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="3/">
       <formula>NOT(ISERROR(SEARCH(("3/"),(V5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="4/">
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="4/">
       <formula>NOT(ISERROR(SEARCH(("4/"),(V5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="0/">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="0/">
       <formula>NOT(ISERROR(SEARCH(("0/"),(V5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="2/">
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="2/">
       <formula>NOT(ISERROR(SEARCH(("2/"),(V5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="(">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="(">
       <formula>NOT(ISERROR(SEARCH(("("),(W5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="blank">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="blank">
       <formula>NOT(ISERROR(SEARCH(("blank"),(W5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="erro">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="erro">
       <formula>NOT(ISERROR(SEARCH(("erro"),(W5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="0/">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="0/">
       <formula>NOT(ISERROR(SEARCH(("0/"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="2/">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="2/">
       <formula>NOT(ISERROR(SEARCH(("2/"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="3/">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="3/">
       <formula>NOT(ISERROR(SEARCH(("3/"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="4/">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="4/">
       <formula>NOT(ISERROR(SEARCH(("4/"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AT14">
-    <cfRule type="containsErrors" dxfId="0" priority="24">
+    <cfRule type="containsErrors" dxfId="21" priority="25">
       <formula>ISERROR(AA12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AT10">
+    <cfRule type="containsErrors" dxfId="20" priority="1">
+      <formula>ISERROR(AA10)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
